--- a/biology/Médecine/Institut_Pasteur_de_Bruxelles/Institut_Pasteur_de_Bruxelles.xlsx
+++ b/biology/Médecine/Institut_Pasteur_de_Bruxelles/Institut_Pasteur_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut Pasteur de Bruxelles a été fondé en 1900 par Jules Bordet, disciple de Louis Pasteur et Prix Nobel de médecine en 1919. Il est le seul institut Pasteur qui n'ait pas été fondé à l'initiative de l'institut Pasteur de Paris. Baptisé à l'origine « Institut Pasteur du Brabant » parce qu'il était financé par cette province belge, il fut renommé, à la fin du XXe siècle, « Institut Pasteur de Bruxelles » et intégré au service public fédéral belge de Santé publique.
 Initialement situé en bordure du parc Léopold à Bruxelles, il fut installé à partir de 1982, dans un grand immeuble moderne de la commune bruxelloise d'Uccle rassemblant ses divers laboratoires de diagnostic microbiologique et de recherche et un service administratif.
